--- a/LF/TAS/Guinee Bissau/gw_lf_tas1_1_sites_202206.xlsx
+++ b/LF/TAS/Guinee Bissau/gw_lf_tas1_1_sites_202206.xlsx
@@ -359,7 +359,7 @@
     <t>allow_choice_duplicates</t>
   </si>
   <si>
-    <t>(Jun 2022) 10. TAS1 FL - Formulário do site (Phase 2) V2</t>
+    <t>(Aug 2022) 10. TAS1 FL - Formulário do site (Phase 2) V2</t>
   </si>
   <si>
     <t>gw_lf_tas1_1_sites_202206_phase2_v2</t>
@@ -2151,9 +2151,9 @@
   <dimension ref="A1:F73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -3152,7 +3152,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>

--- a/LF/TAS/Guinee Bissau/gw_lf_tas1_1_sites_202206.xlsx
+++ b/LF/TAS/Guinee Bissau/gw_lf_tas1_1_sites_202206.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="118">
   <si>
     <t>type</t>
   </si>
@@ -239,30 +239,30 @@
     <t>Bafata</t>
   </si>
   <si>
+    <t>Bambadinca</t>
+  </si>
+  <si>
+    <t>Cambadju</t>
+  </si>
+  <si>
+    <t>Cosse</t>
+  </si>
+  <si>
+    <t>Ga-Ture</t>
+  </si>
+  <si>
+    <t>Geba</t>
+  </si>
+  <si>
+    <t>Sare Bacar</t>
+  </si>
+  <si>
+    <t>Pitche</t>
+  </si>
+  <si>
     <t>Gabu</t>
   </si>
   <si>
-    <t>Bambadinca</t>
-  </si>
-  <si>
-    <t>Cambadju</t>
-  </si>
-  <si>
-    <t>Cosse</t>
-  </si>
-  <si>
-    <t>Ga-Ture</t>
-  </si>
-  <si>
-    <t>Geba</t>
-  </si>
-  <si>
-    <t>Sare Bacar</t>
-  </si>
-  <si>
-    <t>Pitche</t>
-  </si>
-  <si>
     <t>Cidade de Bafata Bairro 4</t>
   </si>
   <si>
@@ -369,6 +369,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Regiao</t>
     </r>
     <r>
@@ -391,6 +397,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Area </t>
     </r>
     <r>
@@ -413,6 +425,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>Comunidade</t>
     </r>
     <r>
@@ -430,10 +448,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -490,33 +508,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -527,32 +531,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,7 +576,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,7 +598,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -604,13 +612,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -618,24 +643,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -668,31 +686,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,25 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,7 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -752,7 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,13 +764,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,19 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,13 +806,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -830,25 +848,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,30 +1069,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1111,6 +1105,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1136,154 +1154,154 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" readingOrder="1"/>
@@ -1321,23 +1339,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
@@ -1768,375 +1771,375 @@
     <col min="13" max="13" width="36.6222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" ht="36" spans="1:13">
-      <c r="A1" s="34" t="s">
+    <row r="1" s="18" customFormat="1" ht="36" spans="1:13">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="34" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="34" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="23" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A2" s="36" t="s">
+    <row r="2" s="18" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="39" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37" t="s">
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-    </row>
-    <row r="3" s="23" customFormat="1" spans="1:13">
-      <c r="A3" s="36" t="s">
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" s="18" customFormat="1" spans="1:13">
+      <c r="A3" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" s="23" customFormat="1" spans="1:13">
-      <c r="A4" s="36" t="s">
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" s="18" customFormat="1" spans="1:13">
+      <c r="A4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37" t="s">
+      <c r="D4" s="33"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37" t="s">
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="23" customFormat="1" spans="1:13">
-      <c r="A5" s="36" t="s">
+    <row r="5" s="18" customFormat="1" spans="1:13">
+      <c r="A5" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37" t="s">
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" s="23" customFormat="1" spans="1:13">
-      <c r="A6" s="36" t="s">
+    <row r="6" s="18" customFormat="1" spans="1:13">
+      <c r="A6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37" t="s">
+      <c r="D6" s="33"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37" t="s">
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" s="33" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
-      <c r="A7" s="39" t="s">
+    <row r="7" s="28" customFormat="1" ht="15.75" customHeight="1" spans="1:13">
+      <c r="A7" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" s="23" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A8" s="36" t="s">
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" s="18" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A8" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="37" t="s">
+      <c r="D8" s="37"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-    </row>
-    <row r="9" s="23" customFormat="1" ht="42.75" spans="1:13">
-      <c r="A9" s="36" t="s">
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" s="18" customFormat="1" ht="42.75" spans="1:13">
+      <c r="A9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="23" t="s">
+      <c r="D9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="37" t="s">
+      <c r="I9" s="34"/>
+      <c r="J9" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
-    </row>
-    <row r="10" s="23" customFormat="1" ht="28.5" spans="1:13">
-      <c r="A10" s="36" t="s">
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" s="18" customFormat="1" ht="28.5" spans="1:13">
+      <c r="A10" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="39"/>
-      <c r="J10" s="37" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-    </row>
-    <row r="11" s="23" customFormat="1" spans="1:13">
-      <c r="A11" s="36" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+    </row>
+    <row r="11" s="18" customFormat="1" spans="1:13">
+      <c r="A11" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="42" t="s">
+      <c r="D11" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="23" t="s">
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="36"/>
-      <c r="J11" s="37" t="s">
+      <c r="I11" s="31"/>
+      <c r="J11" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-    </row>
-    <row r="12" s="23" customFormat="1" spans="1:10">
-      <c r="A12" s="23" t="s">
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+    </row>
+    <row r="12" s="18" customFormat="1" spans="1:10">
+      <c r="A12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="43" t="s">
+      <c r="B12" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="H12" s="23" t="s">
+      <c r="D12" s="37"/>
+      <c r="H12" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" s="23" customFormat="1" spans="1:13">
-      <c r="A13" s="36" t="s">
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" s="18" customFormat="1" spans="1:13">
+      <c r="A13" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-    </row>
-    <row r="14" s="23" customFormat="1" spans="1:13">
-      <c r="A14" s="36" t="s">
+      <c r="D13" s="37"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+    </row>
+    <row r="14" s="18" customFormat="1" spans="1:13">
+      <c r="A14" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" s="23" customFormat="1" spans="1:13">
-      <c r="A15" s="36" t="s">
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+    </row>
+    <row r="15" s="18" customFormat="1" spans="1:13">
+      <c r="A15" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2148,12 +2151,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="$A5:$XFD73"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -2166,57 +2169,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="23"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="28"/>
-    </row>
-    <row r="4" s="24" customFormat="1" spans="1:5">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="30"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" s="19" customFormat="1" spans="1:5">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
@@ -2229,15 +2232,18 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2245,10 +2251,10 @@
         <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
@@ -2335,21 +2341,21 @@
         <v>78</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" t="s">
         <v>79</v>
       </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" t="s">
-        <v>72</v>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2357,10 +2363,10 @@
         <v>66</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
@@ -2371,10 +2377,10 @@
         <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
@@ -2385,10 +2391,10 @@
         <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E19" t="s">
         <v>71</v>
@@ -2399,10 +2405,10 @@
         <v>66</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E20" t="s">
         <v>71</v>
@@ -2413,10 +2419,10 @@
         <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E21" t="s">
         <v>71</v>
@@ -2427,10 +2433,10 @@
         <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E22" t="s">
         <v>71</v>
@@ -2441,10 +2447,10 @@
         <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C23" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s">
         <v>71</v>
@@ -2455,10 +2461,10 @@
         <v>66</v>
       </c>
       <c r="B24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E24" t="s">
         <v>71</v>
@@ -2469,10 +2475,10 @@
         <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
@@ -2483,13 +2489,13 @@
         <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2497,13 +2503,13 @@
         <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2511,13 +2517,13 @@
         <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2525,13 +2531,13 @@
         <v>66</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2539,13 +2545,13 @@
         <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E30" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2553,13 +2559,13 @@
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2567,13 +2573,13 @@
         <v>66</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2581,10 +2587,10 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
         <v>73</v>
@@ -2595,13 +2601,13 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2609,13 +2615,13 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2623,13 +2629,13 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2637,10 +2643,10 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
         <v>74</v>
@@ -2651,10 +2657,10 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E38" t="s">
         <v>75</v>
@@ -2665,10 +2671,10 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E39" t="s">
         <v>76</v>
@@ -2679,13 +2685,13 @@
         <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2693,13 +2699,13 @@
         <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2707,13 +2713,13 @@
         <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2721,27 +2727,27 @@
         <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C44" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45">
+        <v>1001</v>
+      </c>
+      <c r="C45">
+        <v>1001</v>
+      </c>
+      <c r="F45" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2749,13 +2755,13 @@
         <v>107</v>
       </c>
       <c r="B46">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C46">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F46" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2763,13 +2769,13 @@
         <v>107</v>
       </c>
       <c r="B47">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C47">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F47" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2777,13 +2783,13 @@
         <v>107</v>
       </c>
       <c r="B48">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C48">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F48" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2791,13 +2797,13 @@
         <v>107</v>
       </c>
       <c r="B49">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C49">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F49" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2805,13 +2811,13 @@
         <v>107</v>
       </c>
       <c r="B50">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C50">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2819,13 +2825,13 @@
         <v>107</v>
       </c>
       <c r="B51">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C51">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="F51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2833,13 +2839,13 @@
         <v>107</v>
       </c>
       <c r="B52">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C52">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2847,13 +2853,13 @@
         <v>107</v>
       </c>
       <c r="B53">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C53">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2861,13 +2867,13 @@
         <v>107</v>
       </c>
       <c r="B54">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C54">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="F54" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2875,13 +2881,13 @@
         <v>107</v>
       </c>
       <c r="B55">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C55">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2889,13 +2895,13 @@
         <v>107</v>
       </c>
       <c r="B56">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C56">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F56" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2903,13 +2909,13 @@
         <v>107</v>
       </c>
       <c r="B57">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C57">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2917,13 +2923,13 @@
         <v>107</v>
       </c>
       <c r="B58">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C58">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2931,13 +2937,13 @@
         <v>107</v>
       </c>
       <c r="B59">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C59">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="F59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2945,13 +2951,13 @@
         <v>107</v>
       </c>
       <c r="B60">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C60">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2959,13 +2965,13 @@
         <v>107</v>
       </c>
       <c r="B61">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C61">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F61" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2973,13 +2979,13 @@
         <v>107</v>
       </c>
       <c r="B62">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="C62">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="F62" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2987,13 +2993,13 @@
         <v>107</v>
       </c>
       <c r="B63">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C63">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F63" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3001,13 +3007,13 @@
         <v>107</v>
       </c>
       <c r="B64">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C64">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3015,13 +3021,13 @@
         <v>107</v>
       </c>
       <c r="B65">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C65">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="F65" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3029,13 +3035,13 @@
         <v>107</v>
       </c>
       <c r="B66">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C66">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F66" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3043,13 +3049,13 @@
         <v>107</v>
       </c>
       <c r="B67">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C67">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="F67" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3057,13 +3063,13 @@
         <v>107</v>
       </c>
       <c r="B68">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C68">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3071,13 +3077,13 @@
         <v>107</v>
       </c>
       <c r="B69">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C69">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3085,13 +3091,13 @@
         <v>107</v>
       </c>
       <c r="B70">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="C70">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -3099,13 +3105,13 @@
         <v>107</v>
       </c>
       <c r="B71">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C71">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="F71" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3113,27 +3119,13 @@
         <v>107</v>
       </c>
       <c r="B72">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C72">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>107</v>
-      </c>
-      <c r="B73">
-        <v>1028</v>
-      </c>
-      <c r="C73">
-        <v>1028</v>
-      </c>
-      <c r="F73" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3151,8 +3143,8 @@
   <sheetPr/>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -3162,21 +3154,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="17" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="18" t="s">
         <v>112</v>
       </c>
       <c r="B2" t="s">
@@ -3201,10 +3193,10 @@
   <sheetPr/>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C29"/>
+      <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.25"/>
@@ -3279,7 +3271,7 @@
         <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>101</v>
@@ -3288,13 +3280,13 @@
         <v>1002</v>
       </c>
       <c r="F3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>71</v>
@@ -3320,7 +3312,7 @@
         <v>71</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>71</v>
@@ -3346,7 +3338,7 @@
         <v>71</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>71</v>
@@ -3372,7 +3364,7 @@
         <v>71</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K6" s="5" t="s">
         <v>71</v>
@@ -3398,12 +3390,12 @@
         <v>71</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3424,12 +3416,12 @@
         <v>71</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L8" s="13" t="s">
+      <c r="L8" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3438,7 +3430,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>97</v>
@@ -3447,15 +3439,15 @@
         <v>1008</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3464,7 +3456,7 @@
         <v>71</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>98</v>
@@ -3475,7 +3467,7 @@
       <c r="K10" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="L10" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3484,7 +3476,7 @@
         <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>99</v>
@@ -3504,7 +3496,7 @@
         <v>71</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>100</v>
@@ -3512,10 +3504,10 @@
       <c r="D12">
         <v>1011</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="14" t="s">
+      <c r="K12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="6" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3524,7 +3516,7 @@
         <v>71</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>102</v>
@@ -3533,7 +3525,7 @@
         <v>1012</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L13" s="6" t="s">
         <v>91</v>
@@ -3544,7 +3536,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>92</v>
@@ -3553,7 +3545,7 @@
         <v>1013</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>92</v>
@@ -3564,7 +3556,7 @@
         <v>71</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>93</v>
@@ -3573,7 +3565,7 @@
         <v>1014</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>93</v>
@@ -3584,7 +3576,7 @@
         <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>94</v>
@@ -3593,7 +3585,7 @@
         <v>1015</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L16" s="6" t="s">
         <v>94</v>
@@ -3604,7 +3596,7 @@
         <v>71</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>95</v>
@@ -3613,7 +3605,7 @@
         <v>1016</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>95</v>
@@ -3624,7 +3616,7 @@
         <v>71</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>103</v>
@@ -3633,7 +3625,7 @@
         <v>1017</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L18" s="6" t="s">
         <v>96</v>
@@ -3644,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>96</v>
@@ -3653,7 +3645,7 @@
         <v>1018</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L19" s="6" t="s">
         <v>97</v>
@@ -3673,7 +3665,7 @@
         <v>1019</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L20" s="6" t="s">
         <v>98</v>
@@ -3693,7 +3685,7 @@
         <v>1020</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L21" s="6" t="s">
         <v>99</v>
@@ -3713,7 +3705,7 @@
         <v>1021</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="6" t="s">
         <v>100</v>
@@ -3724,7 +3716,7 @@
         <v>71</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>104</v>
@@ -3733,7 +3725,7 @@
         <v>1022</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>101</v>
@@ -3744,7 +3736,7 @@
         <v>71</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>105</v>
@@ -3753,7 +3745,7 @@
         <v>1023</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="6" t="s">
         <v>102</v>
@@ -3764,7 +3756,7 @@
         <v>71</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>106</v>
@@ -3773,7 +3765,7 @@
         <v>1024</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L25" s="6" t="s">
         <v>103</v>
@@ -3792,11 +3784,11 @@
       <c r="D26">
         <v>1025</v>
       </c>
-      <c r="K26" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="17" t="s">
-        <v>79</v>
+      <c r="K26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L26" s="14" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="27" ht="20.25" spans="1:12">
@@ -3804,7 +3796,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>91</v>
@@ -3813,7 +3805,7 @@
         <v>1026</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>104</v>
@@ -3824,7 +3816,7 @@
         <v>71</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>90</v>
@@ -3832,30 +3824,30 @@
       <c r="D28">
         <v>1027</v>
       </c>
-      <c r="K28" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="L28" s="19" t="s">
+      <c r="K28" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L28" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="29" ht="19.5" spans="1:12">
       <c r="A29" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>1028</v>
       </c>
-      <c r="K29" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="L29" s="20" t="s">
+      <c r="K29" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="L29" s="15" t="s">
         <v>106</v>
       </c>
     </row>
